--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$C$2:$C$119</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$C$2:$C$118</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -97,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dragon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dugbog</t>
   </si>
   <si>
     <t xml:space="preserve">Elemental Avatar</t>
@@ -313,10 +310,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1:D8"/>
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -439,43 +436,43 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,7 +480,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -491,7 +488,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,23 +496,23 @@
         <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,7 +520,7 @@
         <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -531,15 +528,15 @@
         <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,31 +544,31 @@
         <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,7 +576,7 @@
         <v>40</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -587,7 +584,7 @@
         <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,7 +592,7 @@
         <v>42</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -603,7 +600,7 @@
         <v>43</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +608,7 @@
         <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,7 +616,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,7 +624,7 @@
         <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,7 +632,7 @@
         <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -643,7 +640,7 @@
         <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -651,7 +648,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,17 +656,10 @@
         <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:B1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\GameMasterGuide\Data\Beasts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A8C016-E874-4DCD-85F8-507030A55AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51880B51-75D2-4B6B-9812-579608801F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -197,16 +197,6 @@
   </si>
   <si>
     <t>Wyverns</t>
-  </si>
-  <si>
-    <t>In the most alien and horrifying corners of the multiverse, deep within the Eldritch Domains dwell creatures beyond mortal comprehension. Mounds of twisting, writhing tentacles and unblinking eyes which never see light, their minds ancient and alien, with desires and motivations which would cause a human to wretch. 
-On the rare occasions that these abyssal, eldritch horrors require something in one of the lower planes, they send a posse of their enumerable children to execute their will: the {\it Abyssal Spawn}. 
-Horrific, twisted mimicries of mortal forms, these beasts spread terror, and destruction in their relentless pursuit of the masters\apos{} will.
-\ability{Eldritch Servants}{Abyssal spawn follow the orders of their masters with a single-minded zeal. Their actions and plans, therefore, may seem chaotic and random, but are part of an eons-long plan, with many trillions of moving parts.}
-\ability{Bloodlust}{If an Abyssal Spawn is not able to complete their task, or a plan goes awry, they will first attempt to regain contact with their masters. If this is not possible, an abyssal servant reverts to their default mood: a primal hatred for all living things, going on a rampage, slaying everything in sight.
-}
-\ability{Terrifying Form}{The twisted forms created for the Abyssal Spawn is enough to  drive terror into the heart of even the bravest warrior and possibly drive them insane. }
-\ability{Unliving}{As beings which are not truly alive, Abyssal Spawn need neither air, food, drink or sleep in order to survive. However, they are vulnerable to celestial damage.}</t>
   </si>
   <si>
     <r>
@@ -248,9 +238,6 @@
     <t>Angels</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>greatOld</t>
   </si>
   <si>
@@ -287,6 +274,29 @@
 \ability{Camouflaged}{Bowtruckles blend in perfectly with their trees, when they wish to pass unnoticed, they appear as nothing more than a set of leafy twigs. It is only by cathcing them in motion that they can be easily spotted.}
 \ability{Natural Climbers}{Living their entire life in trees, bowtruckles are natural climbers, and can move across near-sheer vertical surfaces as easily as they walk}. 
 \ability{Long Fingers}{Nominally evolved to help dig insects out of the bark of a tree, the long spindly fingers of a bowtruckle can be used to perform very delicate tasks, such as picking a lock, or used offensively to poke out the eyes of those who threaten their treetop homes.}</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>Angels are powerful, beautiful Celestial creatures, denizens of Elysium, one of the Higher Planes, though they can be found throughout the multiverse. Often perceived as powerful agents of Deities, servants of benevolent gods, it is actually unknown who or what provides these powerful creatures with their deeper purpose. 
+\ability{Benevolent Fury}{Almost universally pure of heart and intrinsically ethical and good, Angels are representative of everything full of light and life in the universe. Angels will never compromise their core beliefs. They are not, however, pacifists. Angels are great and pwoerful warriors, and will strike down their enemies in the name of protecting those who cannot protect themselves.}
+\ability{Angelic Host}{The Angelic society is known as the {\it Angelic Host}, a powerful seemingly omniscient society which dwells almost entirely in the Silver City found at the centre of Elysium. This society is highly structured and hierarchical, with angels being created to fill specific niches within each echelon of society. Each Angel derives their powers from their position within the angelic hierarchy, with the highest tiers wielding terrifying amounts of power.}
+\ability{Holy Crusades}{Angels only leave the Silver City on two conditions, the most common of which is being directed on a holy quest by one of their superiors. Most Angels met outside of Elysium are conducting such a quest. The difficulty of the quest depends on the ranking of the angel in question: a cherubim might be sent out to conduct a blessing, or deliver a message, whilst a quest which calls for an Archangel to be sent would be a truly dire universe-ending scenario. }
+\ability{Fallen Angel}{The other condition under which an Angel is refused entry into the Silver City is if they have {\it fallen}. Though Angels will never compromise their core beliefs, and are almost inherently good in nature it is possible for them to fall victim to their own pride and hubris. If this happens, an angel may act against the wishes of the Host, or inadvertently perform some great act of evil. 
+If this happens, the Host will disavow them, and cast them out. Without the purpose granted to them by the rigid structure of Angelic society, many such fallen angels go entirely mad. Others sink into a deep, vengeful fury and declare war on the Host, whilst others are believed to undergo a transformation, becoming powerful demonic creatures. }
+\ability{Immortal Spirit}{As a celestial being, an angel is incredibly resilient and requires neither food, drink, air or sleep (though they may enjoy the experience).}</t>
+  </si>
+  <si>
+    <t>In the most alien and horrifying corners of the multiverse, deep within the Eldritch Domains dwell creatures beyond mortal comprehension. Mounds of twisting, writhing tentacles and unblinking eyes which never see light, their minds ancient and alien, with desires and motivations which would cause a human to wretch. 
+On the rare occasions that these abyssal, eldritch horrors require something in one of the lower planes, they send a posse of their enumerable children to execute their will: the {\it Abyssal Spawn}. 
+Horrific, twisted mimicries of mortal forms, these beasts spread terror, and destruction in their relentless pursuit of the masters\apos{} will.
+\ability{Eldritch Servants}{Abyssal spawn follow the orders of their masters with a single-minded zeal. Their actions and plans, therefore, may seem chaotic and random, but are part of an eons-long plan, with many trillions of moving parts.}
+\ability{Bloodlust}{If an Abyssal Spawn is not able to complete their task, or a plan goes awry, they will first attempt to regain contact with their masters. If this is not possible, an abyssal servant reverts to their default mood: a primal hatred for all living things, going on a rampage, slaying everything in sight.
+}
+\ability{Terrifying Form}{The twisted forms created for the Abyssal Spawn is enough to  drive terror into the heart of even the bravest warrior and possibly drive them insane. }
+\ability{Unliving}{As beings which are not truly alive, Abyssal Spawn need neither air, food, drink or sleep in order to survive. However, they are vulnerable to celestial damage.}
+\ability{Dust To Dust}{When killed, Abyssal Horrors leave behind no corpses. Their bodies explode into voidic essence, which slowly evaporates as black mist.}</t>
   </si>
 </sst>
 </file>
@@ -677,7 +687,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,24 +706,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="285" x14ac:dyDescent="0.25">
@@ -721,10 +731,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>0.5</v>
@@ -735,21 +745,27 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>0.36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -757,10 +773,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>0.5</v>
@@ -771,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
@@ -779,10 +795,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -801,7 +817,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -288,6 +288,13 @@
   </si>
   <si>
     <t xml:space="preserve">Wyverns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric Elemental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within the \imp{Elemental Planes} there can be found a single, enormous mountain, surrounded at all times by a roiling, black cloud filled with crackling energy: \key{Thundertop}. Lightning and thunder are everpresent in this hostile environment, and every surface is highly charged with static electricity – the foolish explorer who sets foot on the mountain of thunder without some rubber-soled boots is liable to have a {\it very} bad time. 
+Within the crackling chaos and the booming crashes of this formiddable environment, reside a number of creatures who have learned to harness, channel and consume electrical energy, using it for their own end - \key{Electric Elementals}. </t>
   </si>
 </sst>
 </file>
@@ -421,10 +428,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -843,8 +850,16 @@
         <v>71</v>
       </c>
     </row>
+    <row r="55" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -295,6 +295,12 @@
   <si>
     <t xml:space="preserve">Within the \imp{Elemental Planes} there can be found a single, enormous mountain, surrounded at all times by a roiling, black cloud filled with crackling energy: \key{Thundertop}. Lightning and thunder are everpresent in this hostile environment, and every surface is highly charged with static electricity – the foolish explorer who sets foot on the mountain of thunder without some rubber-soled boots is liable to have a {\it very} bad time. 
 Within the crackling chaos and the booming crashes of this formiddable environment, reside a number of creatures who have learned to harness, channel and consume electrical energy, using it for their own end - \key{Electric Elementals}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giantkin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Though the \imp{True Giants} are the most prolific of the various \imp{Giantkin} around, enough to establish themselves as an independent society, there are other related creatures scattered around in isolated pockets across the globe. Through various infighting and wars with external agressors, their populations have been depleted enough that they are almost constantly nearing the edge of extinction, and most have reverted to a nomadic existence, with small groups and families searching for a safe place to call home. </t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -858,8 +864,16 @@
         <v>73</v>
       </c>
     </row>
+    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B54"/>
+  <autoFilter ref="A1:B1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -116,25 +116,29 @@
     <t xml:space="preserve">Creations</t>
   </si>
   <si>
+    <t xml:space="preserve">\key{Creations} are a class of magical creature which have, either through accident or design, been created by artificial means. This is usually the result of (highly illegal) experimental breeding, though direct magical manipulation of a species has been known to occur. 
+Almost every beginner \imp{Transfiguration} student has, at some point, been responsible for the creation of a pseudo-\imp{Creation}, when they accidentaly morphed their pet rat into a rat-goblet, or some other ungodly accident. What sets the creatures below apart from these short-lived accidents is that \imp{Creations} are a viable species in their own right, with the ability to reproduce and continue their species’ existence, and they have often escaped from their creators’ control, and have made their home somewhere in the magical world. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demiguise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinosaurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long thought extinct by the muggles, dinosaurs are a class of ancient lizard and reptilian creatures which dominated life on Earth up until 75 million years ago. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elemental Avatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demiguise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinosaurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long thought extinct by the muggles, dinosaurs are a class of ancient lizard and reptilian creatures which dominated life on Earth up until 75 million years ago. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elemental Avatar</t>
   </si>
   <si>
     <t xml:space="preserve">Elf</t>
@@ -436,8 +440,8 @@
   </sheetPr>
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -528,7 +532,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -565,36 +569,36 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
@@ -602,31 +606,31 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>26</v>
@@ -634,23 +638,23 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
@@ -658,23 +662,23 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>26</v>
@@ -682,31 +686,31 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>26</v>
@@ -714,23 +718,23 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>26</v>
@@ -738,15 +742,15 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
@@ -754,15 +758,15 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>26</v>
@@ -770,31 +774,31 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>26</v>
@@ -802,78 +806,78 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -141,7 +141,7 @@
     <t xml:space="preserve">b</t>
   </si>
   <si>
-    <t xml:space="preserve">Elf</t>
+    <t xml:space="preserve">Elves</t>
   </si>
   <si>
     <t xml:space="preserve">Modern muggle culture frequently imagines Elves to be superhuman, immortal and otherworldly creatures – outwardly appearing as impossibly beautiful humans and wielding immense, primal magic. This is primarly due to the influence of the muggle writer Tolkein (who was himself a squib). In reality, elves are much closer to those envisaged in medieval Germanic mythology – small, impish tricksters. 
@@ -441,7 +441,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -877,7 +877,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B54"/>
+  <autoFilter ref="A1:B1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$55</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$167</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -63,6 +63,12 @@
 \ability{Incorporeal Form}{Almost all apparitions are merely imprints, shadows lying between the astral realm and the mortal plane, and as such are totally incapable of interacting with the physical realm. They can pass through solid objects at will, move with blatant disregard for the force of gravity, as well as being immune to all normal forms of attack. }
 \ability{Unknowable Purpose}{It is not understood what drives apparaitions of any kind to remain behind on the mortal plain. Some speculate that all apparitions are manifestations of lost souls, bound to the Earth through their need to find closure, or complete some important task. Others speculate that they are glitches in the fabric of reality, whose motives even they themselves do not understand.}
 \ability{Unkillable}{It is impossible to kill an apparition, though it is possible to banish them for a time. The only known way to permanently deal with an apparition is to plunge one into the Void, or help them find the closure they need, or otherwise convince them to relinquish their hold on the mortal realm. }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated Objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animated Objects </t>
   </si>
   <si>
     <t xml:space="preserve">Arachnid</t>
@@ -419,12 +425,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -434,22 +440,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="128.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,7 +497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -500,7 +505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -508,23 +513,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+    <row r="8" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -532,32 +537,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+    <row r="11" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -565,14 +570,14 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -580,7 +585,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -593,282 +598,282 @@
         <v>33</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>43</v>
+      <c r="A27" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
+      <c r="A29" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>52</v>
+      <c r="A35" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
-        <v>54</v>
+      <c r="A37" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>55</v>
+      <c r="A38" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>57</v>
+      <c r="A40" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>58</v>
+      <c r="A41" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B46" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
         <v>66</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>70</v>
+      <c r="A52" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>71</v>
+      <c r="A53" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>75</v>
       </c>
@@ -876,8 +881,16 @@
         <v>76</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B55"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/GameMasterGuide/Data/Beasts/Species.xlsx
+++ b/GameMasterGuide/Data/Beasts/Species.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Extract" vbProcedure="false">Sheet1!$A$2:$A$166</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$54</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -305,6 +305,12 @@
   </si>
   <si>
     <t xml:space="preserve">Though the \imp{True Giants} are the most prolific of the various \imp{Giantkin} around, enough to establish themselves as an independent society, there are other related creatures scattered around in isolated pockets across the globe. Through various infighting and wars with external agressors, their populations have been depleted enough that they are almost constantly nearing the edge of extinction, and most have reverted to a nomadic existence, with small groups and families searching for a safe place to call home. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Artificial Lifeform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ak</t>
   </si>
 </sst>
 </file>
@@ -438,10 +444,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -876,8 +882,16 @@
         <v>76</v>
       </c>
     </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B54"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
